--- a/Информация о проходах/Бабенко Екатерина Владимировна.xlsx
+++ b/Информация о проходах/Бабенко Екатерина Владимировна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,294 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:59:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-06-06 14:39:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-06-20 13:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-21 13:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-21 16:54:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-28 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-28 13:43:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:01:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Бабенко Екатерина Владимировна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Специалист по валидации</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:28:29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
